--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1554222560344693</v>
+        <v>-0.1824824748765293</v>
       </c>
       <c r="D2">
-        <v>0.876507121879663</v>
+        <v>0.8568752146584846</v>
       </c>
       <c r="E2">
         <v>0.7866679143925374</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.01858203951934296</v>
+        <v>0.01625958139480197</v>
       </c>
       <c r="D3">
-        <v>0.9851767385791919</v>
+        <v>0.9871738608514755</v>
       </c>
       <c r="E3">
         <v>0.7866679143925374</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.916241857625099</v>
+        <v>1.599706644954175</v>
       </c>
       <c r="D4">
-        <v>0.05550394492344668</v>
+        <v>0.1239274539652886</v>
       </c>
       <c r="E4">
         <v>0.7866679143925374</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2894098784395441</v>
+        <v>0.3678450420613426</v>
       </c>
       <c r="D5">
-        <v>0.7723034680223155</v>
+        <v>0.7165041445181943</v>
       </c>
       <c r="E5">
         <v>0.7866679143925374</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1631582512342648</v>
+        <v>0.1791814761549157</v>
       </c>
       <c r="D6">
-        <v>0.8704134715307474</v>
+        <v>0.8594351779687872</v>
       </c>
       <c r="E6">
         <v>0.7914487966539434</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.078819492909049</v>
+        <v>2.136190996932164</v>
       </c>
       <c r="D7">
-        <v>0.03778545935481459</v>
+        <v>0.04403872731010927</v>
       </c>
       <c r="E7">
         <v>0.7914487966539434</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.3960204142457387</v>
+        <v>0.4970158262641189</v>
       </c>
       <c r="D8">
-        <v>0.6921402865849902</v>
+        <v>0.624108413987611</v>
       </c>
       <c r="E8">
         <v>0.7914487966539434</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.857726234498992</v>
+        <v>1.407887613110299</v>
       </c>
       <c r="D9">
-        <v>0.06338285488083684</v>
+        <v>0.1731385250753494</v>
       </c>
       <c r="E9">
         <v>0.7861256868316598</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2557987220786047</v>
+        <v>0.326731706413469</v>
       </c>
       <c r="D10">
-        <v>0.79813759439548</v>
+        <v>0.7469589764799367</v>
       </c>
       <c r="E10">
         <v>0.7861256868316598</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.463283163856751</v>
+        <v>-1.719075968560216</v>
       </c>
       <c r="D11">
-        <v>0.1435770850377973</v>
+        <v>0.09964182829453527</v>
       </c>
       <c r="E11">
         <v>0.7320955450052858</v>
